--- a/测试单-电子书_160910.xlsx
+++ b/测试单-电子书_160910.xlsx
@@ -16,14 +16,14 @@
     <sheet name="背景音乐音频格式" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">txt!$A$2:$O$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">txt!$A$2:$O$113</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="261">
   <si>
     <t>编号</t>
   </si>
@@ -4791,6 +4791,10 @@
   </si>
   <si>
     <t>添加音乐播放演示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6438,13 +6442,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L88" sqref="L88"/>
+      <selection pane="bottomRight" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6515,7 +6520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="66" customFormat="1" ht="40.5">
+    <row r="3" spans="1:15" s="66" customFormat="1" ht="40.5" hidden="1">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -6550,7 +6555,7 @@
       </c>
       <c r="O3" s="28"/>
     </row>
-    <row r="4" spans="1:15" s="91" customFormat="1" ht="81">
+    <row r="4" spans="1:15" s="91" customFormat="1" ht="81" hidden="1">
       <c r="A4" s="112">
         <v>2</v>
       </c>
@@ -6587,7 +6592,7 @@
       </c>
       <c r="O4" s="90"/>
     </row>
-    <row r="5" spans="1:15" s="91" customFormat="1" ht="54">
+    <row r="5" spans="1:15" s="91" customFormat="1" ht="54" hidden="1">
       <c r="A5" s="112">
         <v>3</v>
       </c>
@@ -6684,7 +6689,7 @@
       <c r="N7" s="23"/>
       <c r="O7" s="28"/>
     </row>
-    <row r="8" spans="1:15" s="91" customFormat="1" ht="27">
+    <row r="8" spans="1:15" s="91" customFormat="1" ht="27" hidden="1">
       <c r="A8" s="112">
         <v>6</v>
       </c>
@@ -6723,7 +6728,7 @@
       </c>
       <c r="O8" s="90"/>
     </row>
-    <row r="9" spans="1:15" s="91" customFormat="1" ht="40.5">
+    <row r="9" spans="1:15" s="91" customFormat="1" ht="40.5" hidden="1">
       <c r="A9" s="112">
         <v>7</v>
       </c>
@@ -6751,7 +6756,9 @@
         <v>42610</v>
       </c>
       <c r="K9" s="84"/>
-      <c r="L9" s="88"/>
+      <c r="L9" s="88" t="s">
+        <v>260</v>
+      </c>
       <c r="M9" s="88"/>
       <c r="N9" s="85"/>
       <c r="O9" s="90"/>
@@ -6787,7 +6794,7 @@
       <c r="N10" s="23"/>
       <c r="O10" s="28"/>
     </row>
-    <row r="11" spans="1:15" s="127" customFormat="1" ht="40.5">
+    <row r="11" spans="1:15" s="127" customFormat="1" ht="40.5" hidden="1">
       <c r="A11" s="112">
         <v>9</v>
       </c>
@@ -6815,14 +6822,16 @@
         <v>42610</v>
       </c>
       <c r="K11" s="120"/>
-      <c r="L11" s="124"/>
+      <c r="L11" s="124" t="s">
+        <v>260</v>
+      </c>
       <c r="M11" s="124" t="s">
         <v>94</v>
       </c>
       <c r="N11" s="121"/>
       <c r="O11" s="126"/>
     </row>
-    <row r="12" spans="1:15" s="91" customFormat="1" ht="40.5">
+    <row r="12" spans="1:15" s="91" customFormat="1" ht="40.5" hidden="1">
       <c r="A12" s="112">
         <v>10</v>
       </c>
@@ -6850,12 +6859,14 @@
         <v>42552</v>
       </c>
       <c r="K12" s="84"/>
-      <c r="L12" s="88"/>
+      <c r="L12" s="88" t="s">
+        <v>260</v>
+      </c>
       <c r="M12" s="88"/>
       <c r="N12" s="85"/>
       <c r="O12" s="90"/>
     </row>
-    <row r="13" spans="1:15" s="91" customFormat="1" ht="27">
+    <row r="13" spans="1:15" s="91" customFormat="1" ht="27" hidden="1">
       <c r="A13" s="112">
         <v>11</v>
       </c>
@@ -6883,12 +6894,14 @@
         <v>42552</v>
       </c>
       <c r="K13" s="84"/>
-      <c r="L13" s="88"/>
+      <c r="L13" s="88" t="s">
+        <v>260</v>
+      </c>
       <c r="M13" s="88"/>
       <c r="N13" s="85"/>
       <c r="O13" s="90"/>
     </row>
-    <row r="14" spans="1:15" ht="67.5">
+    <row r="14" spans="1:15" ht="67.5" hidden="1">
       <c r="A14" s="112">
         <v>12</v>
       </c>
@@ -6911,7 +6924,9 @@
       <c r="H14" s="22"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
-      <c r="K14" s="22"/>
+      <c r="K14" s="177" t="s">
+        <v>260</v>
+      </c>
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
       <c r="N14" s="23"/>
@@ -7534,7 +7549,7 @@
       <c r="N35" s="78"/>
       <c r="O35" s="28"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" hidden="1">
       <c r="A36" s="112">
         <v>34</v>
       </c>
@@ -7559,7 +7574,9 @@
       <c r="H36" s="22"/>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
-      <c r="K36" s="22"/>
+      <c r="K36" s="177" t="s">
+        <v>260</v>
+      </c>
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
       <c r="N36" s="23"/>
@@ -7625,7 +7642,7 @@
       <c r="N38" s="23"/>
       <c r="O38" s="28"/>
     </row>
-    <row r="39" spans="1:15" s="91" customFormat="1">
+    <row r="39" spans="1:15" s="91" customFormat="1" hidden="1">
       <c r="A39" s="112">
         <v>37</v>
       </c>
@@ -7652,7 +7669,9 @@
       <c r="J39" s="85">
         <v>42610</v>
       </c>
-      <c r="K39" s="84"/>
+      <c r="K39" s="84" t="s">
+        <v>115</v>
+      </c>
       <c r="L39" s="88"/>
       <c r="M39" s="88"/>
       <c r="N39" s="85"/>
@@ -7687,7 +7706,7 @@
       <c r="N40" s="23"/>
       <c r="O40" s="28"/>
     </row>
-    <row r="41" spans="1:15" s="66" customFormat="1" ht="54">
+    <row r="41" spans="1:15" s="66" customFormat="1" ht="54" hidden="1">
       <c r="A41" s="112">
         <v>39</v>
       </c>
@@ -7724,7 +7743,7 @@
       </c>
       <c r="O41" s="28"/>
     </row>
-    <row r="42" spans="1:15" s="66" customFormat="1" ht="94.5">
+    <row r="42" spans="1:15" s="66" customFormat="1" ht="94.5" hidden="1">
       <c r="A42" s="112">
         <v>40</v>
       </c>
@@ -7761,7 +7780,7 @@
       </c>
       <c r="O42" s="28"/>
     </row>
-    <row r="43" spans="1:15" s="66" customFormat="1" ht="243">
+    <row r="43" spans="1:15" s="66" customFormat="1" ht="243" hidden="1">
       <c r="A43" s="112">
         <v>41</v>
       </c>
@@ -7827,7 +7846,7 @@
       <c r="N44" s="23"/>
       <c r="O44" s="28"/>
     </row>
-    <row r="45" spans="1:15" s="66" customFormat="1" ht="81">
+    <row r="45" spans="1:15" s="66" customFormat="1" ht="81" hidden="1">
       <c r="A45" s="112">
         <v>43</v>
       </c>
@@ -7861,7 +7880,7 @@
       </c>
       <c r="O45" s="28"/>
     </row>
-    <row r="46" spans="1:15" s="66" customFormat="1" ht="270">
+    <row r="46" spans="1:15" s="66" customFormat="1" ht="270" hidden="1">
       <c r="A46" s="112">
         <v>44</v>
       </c>
@@ -7896,7 +7915,7 @@
       </c>
       <c r="O46" s="28"/>
     </row>
-    <row r="47" spans="1:15" s="66" customFormat="1" ht="121.5">
+    <row r="47" spans="1:15" s="66" customFormat="1" ht="121.5" hidden="1">
       <c r="A47" s="112">
         <v>45</v>
       </c>
@@ -7991,7 +8010,7 @@
       <c r="N49" s="23"/>
       <c r="O49" s="28"/>
     </row>
-    <row r="50" spans="1:15" s="66" customFormat="1" ht="40.5">
+    <row r="50" spans="1:15" s="66" customFormat="1" ht="40.5" hidden="1">
       <c r="A50" s="112">
         <v>48</v>
       </c>
@@ -8016,13 +8035,15 @@
       <c r="H50" s="22"/>
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
-      <c r="K50" s="22"/>
+      <c r="K50" s="177" t="s">
+        <v>115</v>
+      </c>
       <c r="L50" s="26"/>
       <c r="M50" s="26"/>
       <c r="N50" s="23"/>
       <c r="O50" s="28"/>
     </row>
-    <row r="51" spans="1:15" s="91" customFormat="1" ht="27">
+    <row r="51" spans="1:15" s="91" customFormat="1" ht="27" hidden="1">
       <c r="A51" s="112">
         <v>49</v>
       </c>
@@ -8050,12 +8071,14 @@
         <v>42610</v>
       </c>
       <c r="K51" s="84"/>
-      <c r="L51" s="88"/>
+      <c r="L51" s="88" t="s">
+        <v>260</v>
+      </c>
       <c r="M51" s="88"/>
       <c r="N51" s="85"/>
       <c r="O51" s="90"/>
     </row>
-    <row r="52" spans="1:15" s="81" customFormat="1" ht="27">
+    <row r="52" spans="1:15" s="81" customFormat="1" ht="27" hidden="1">
       <c r="A52" s="112">
         <v>50</v>
       </c>
@@ -8117,7 +8140,7 @@
       <c r="N53" s="114"/>
       <c r="O53" s="119"/>
     </row>
-    <row r="54" spans="1:15" s="111" customFormat="1">
+    <row r="54" spans="1:15" s="111" customFormat="1" hidden="1">
       <c r="A54" s="112">
         <v>52</v>
       </c>
@@ -8142,13 +8165,15 @@
       <c r="H54" s="113"/>
       <c r="I54" s="118"/>
       <c r="J54" s="118"/>
-      <c r="K54" s="113"/>
+      <c r="K54" s="177" t="s">
+        <v>115</v>
+      </c>
       <c r="L54" s="117"/>
       <c r="M54" s="117"/>
       <c r="N54" s="114"/>
       <c r="O54" s="119"/>
     </row>
-    <row r="55" spans="1:15" s="110" customFormat="1">
+    <row r="55" spans="1:15" s="110" customFormat="1" hidden="1">
       <c r="A55" s="112">
         <v>53</v>
       </c>
@@ -8173,13 +8198,15 @@
       <c r="H55" s="113"/>
       <c r="I55" s="118"/>
       <c r="J55" s="118"/>
-      <c r="K55" s="113"/>
+      <c r="K55" s="177" t="s">
+        <v>115</v>
+      </c>
       <c r="L55" s="117"/>
       <c r="M55" s="117"/>
       <c r="N55" s="114"/>
       <c r="O55" s="119"/>
     </row>
-    <row r="56" spans="1:15" s="111" customFormat="1" ht="27">
+    <row r="56" spans="1:15" s="111" customFormat="1" ht="27" hidden="1">
       <c r="A56" s="112">
         <v>54</v>
       </c>
@@ -8202,13 +8229,15 @@
       <c r="H56" s="113"/>
       <c r="I56" s="118"/>
       <c r="J56" s="118"/>
-      <c r="K56" s="113"/>
+      <c r="K56" s="177" t="s">
+        <v>115</v>
+      </c>
       <c r="L56" s="117"/>
       <c r="M56" s="117"/>
       <c r="N56" s="114"/>
       <c r="O56" s="119"/>
     </row>
-    <row r="57" spans="1:15" s="111" customFormat="1" ht="81">
+    <row r="57" spans="1:15" s="111" customFormat="1" ht="81" hidden="1">
       <c r="A57" s="112">
         <v>55</v>
       </c>
@@ -8245,7 +8274,7 @@
       </c>
       <c r="O57" s="119"/>
     </row>
-    <row r="58" spans="1:15" s="91" customFormat="1" ht="27">
+    <row r="58" spans="1:15" s="91" customFormat="1" ht="27" hidden="1">
       <c r="A58" s="112">
         <v>56</v>
       </c>
@@ -8282,7 +8311,7 @@
       </c>
       <c r="O58" s="90"/>
     </row>
-    <row r="59" spans="1:15" s="91" customFormat="1" ht="27">
+    <row r="59" spans="1:15" s="91" customFormat="1" ht="27" hidden="1">
       <c r="A59" s="112">
         <v>57</v>
       </c>
@@ -8406,7 +8435,7 @@
       <c r="N62" s="114"/>
       <c r="O62" s="119"/>
     </row>
-    <row r="63" spans="1:15" s="91" customFormat="1">
+    <row r="63" spans="1:15" s="91" customFormat="1" hidden="1">
       <c r="A63" s="112">
         <v>61</v>
       </c>
@@ -8476,7 +8505,7 @@
       <c r="N64" s="114"/>
       <c r="O64" s="119"/>
     </row>
-    <row r="65" spans="1:15" s="91" customFormat="1">
+    <row r="65" spans="1:15" s="91" customFormat="1" hidden="1">
       <c r="A65" s="112">
         <v>63</v>
       </c>
@@ -8515,7 +8544,7 @@
       </c>
       <c r="O65" s="90"/>
     </row>
-    <row r="66" spans="1:15" s="91" customFormat="1">
+    <row r="66" spans="1:15" s="91" customFormat="1" hidden="1">
       <c r="A66" s="112">
         <v>64</v>
       </c>
@@ -8554,7 +8583,7 @@
       </c>
       <c r="O66" s="90"/>
     </row>
-    <row r="67" spans="1:15" s="132" customFormat="1" ht="40.5">
+    <row r="67" spans="1:15" s="132" customFormat="1" ht="40.5" hidden="1">
       <c r="A67" s="112">
         <v>65</v>
       </c>
@@ -8593,7 +8622,7 @@
       </c>
       <c r="O67" s="90"/>
     </row>
-    <row r="68" spans="1:15" s="91" customFormat="1" ht="27">
+    <row r="68" spans="1:15" s="91" customFormat="1" ht="27" hidden="1">
       <c r="A68" s="112">
         <v>66</v>
       </c>
@@ -8632,7 +8661,7 @@
       </c>
       <c r="O68" s="90"/>
     </row>
-    <row r="69" spans="1:15" s="91" customFormat="1">
+    <row r="69" spans="1:15" s="91" customFormat="1" hidden="1">
       <c r="A69" s="112">
         <v>67</v>
       </c>
@@ -8671,7 +8700,7 @@
       </c>
       <c r="O69" s="90"/>
     </row>
-    <row r="70" spans="1:15" s="111" customFormat="1" ht="27">
+    <row r="70" spans="1:15" s="111" customFormat="1" ht="27" hidden="1">
       <c r="A70" s="112">
         <v>68</v>
       </c>
@@ -8710,7 +8739,7 @@
       </c>
       <c r="O70" s="119"/>
     </row>
-    <row r="71" spans="1:15" s="111" customFormat="1" ht="27">
+    <row r="71" spans="1:15" s="111" customFormat="1" ht="27" hidden="1">
       <c r="A71" s="112">
         <v>69</v>
       </c>
@@ -8749,7 +8778,7 @@
       </c>
       <c r="O71" s="119"/>
     </row>
-    <row r="72" spans="1:15" s="91" customFormat="1">
+    <row r="72" spans="1:15" s="91" customFormat="1" hidden="1">
       <c r="A72" s="112">
         <v>70</v>
       </c>
@@ -8788,7 +8817,7 @@
       </c>
       <c r="O72" s="90"/>
     </row>
-    <row r="73" spans="1:15" s="111" customFormat="1" ht="40.5">
+    <row r="73" spans="1:15" s="111" customFormat="1" ht="40.5" hidden="1">
       <c r="A73" s="112">
         <v>71</v>
       </c>
@@ -8825,7 +8854,7 @@
       </c>
       <c r="O73" s="119"/>
     </row>
-    <row r="74" spans="1:15" s="111" customFormat="1" ht="27">
+    <row r="74" spans="1:15" s="111" customFormat="1" ht="27" hidden="1">
       <c r="A74" s="112">
         <v>72</v>
       </c>
@@ -8864,7 +8893,7 @@
       </c>
       <c r="O74" s="119"/>
     </row>
-    <row r="75" spans="1:15" s="91" customFormat="1">
+    <row r="75" spans="1:15" s="91" customFormat="1" hidden="1">
       <c r="A75" s="112">
         <v>73</v>
       </c>
@@ -8903,7 +8932,7 @@
       </c>
       <c r="O75" s="90"/>
     </row>
-    <row r="76" spans="1:15" s="81" customFormat="1" ht="40.5">
+    <row r="76" spans="1:15" s="81" customFormat="1" ht="40.5" hidden="1">
       <c r="A76" s="112">
         <v>74</v>
       </c>
@@ -8940,7 +8969,7 @@
       </c>
       <c r="O76" s="119"/>
     </row>
-    <row r="77" spans="1:15" s="111" customFormat="1" ht="27">
+    <row r="77" spans="1:15" s="111" customFormat="1" ht="27" hidden="1">
       <c r="A77" s="112">
         <v>75</v>
       </c>
@@ -8975,7 +9004,7 @@
       </c>
       <c r="O77" s="119"/>
     </row>
-    <row r="78" spans="1:15" s="111" customFormat="1" ht="40.5">
+    <row r="78" spans="1:15" s="111" customFormat="1" ht="40.5" hidden="1">
       <c r="A78" s="112">
         <v>76</v>
       </c>
@@ -9012,7 +9041,7 @@
       </c>
       <c r="O78" s="119"/>
     </row>
-    <row r="79" spans="1:15" s="111" customFormat="1" ht="40.5">
+    <row r="79" spans="1:15" s="111" customFormat="1" ht="40.5" hidden="1">
       <c r="A79" s="112">
         <v>77</v>
       </c>
@@ -9072,7 +9101,7 @@
       <c r="N80" s="114"/>
       <c r="O80" s="119"/>
     </row>
-    <row r="81" spans="1:15" s="111" customFormat="1">
+    <row r="81" spans="1:15" s="111" customFormat="1" hidden="1">
       <c r="A81" s="112">
         <v>79</v>
       </c>
@@ -9136,7 +9165,7 @@
       <c r="N82" s="23"/>
       <c r="O82" s="28"/>
     </row>
-    <row r="83" spans="1:15" s="91" customFormat="1" ht="27">
+    <row r="83" spans="1:15" s="91" customFormat="1" ht="27" hidden="1">
       <c r="A83" s="112">
         <v>81</v>
       </c>
@@ -9173,7 +9202,7 @@
       </c>
       <c r="O83" s="90"/>
     </row>
-    <row r="84" spans="1:15" s="111" customFormat="1">
+    <row r="84" spans="1:15" s="111" customFormat="1" hidden="1">
       <c r="A84" s="112">
         <v>82</v>
       </c>
@@ -9198,9 +9227,11 @@
       <c r="H84" s="84"/>
       <c r="I84" s="89"/>
       <c r="J84" s="85"/>
-      <c r="K84" s="113"/>
+      <c r="K84" s="177" t="s">
+        <v>115</v>
+      </c>
       <c r="L84" s="117"/>
-      <c r="M84" s="117"/>
+      <c r="M84" s="174"/>
       <c r="N84" s="114">
         <v>42616</v>
       </c>
@@ -9732,7 +9763,7 @@
       </c>
       <c r="O101" s="119"/>
     </row>
-    <row r="102" spans="1:15" s="111" customFormat="1" ht="27">
+    <row r="102" spans="1:15" s="111" customFormat="1" ht="27" hidden="1">
       <c r="A102" s="112">
         <v>100</v>
       </c>
@@ -9765,7 +9796,7 @@
       </c>
       <c r="O102" s="119"/>
     </row>
-    <row r="103" spans="1:15" s="111" customFormat="1">
+    <row r="103" spans="1:15" s="111" customFormat="1" hidden="1">
       <c r="A103" s="112">
         <v>101</v>
       </c>
@@ -9798,7 +9829,7 @@
       </c>
       <c r="O103" s="119"/>
     </row>
-    <row r="104" spans="1:15" s="111" customFormat="1" ht="27">
+    <row r="104" spans="1:15" s="111" customFormat="1" ht="27" hidden="1">
       <c r="A104" s="112">
         <v>102</v>
       </c>
@@ -9864,7 +9895,7 @@
       </c>
       <c r="O105" s="119"/>
     </row>
-    <row r="106" spans="1:15" s="111" customFormat="1">
+    <row r="106" spans="1:15" s="111" customFormat="1" hidden="1">
       <c r="A106" s="112">
         <v>104</v>
       </c>
@@ -9887,7 +9918,9 @@
       <c r="H106" s="84"/>
       <c r="I106" s="89"/>
       <c r="J106" s="85"/>
-      <c r="K106" s="113"/>
+      <c r="K106" s="177" t="s">
+        <v>115</v>
+      </c>
       <c r="L106" s="117"/>
       <c r="M106" s="117"/>
       <c r="N106" s="114">
@@ -10198,7 +10231,14 @@
       <c r="F123" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O107"/>
+  <autoFilter ref="A2:O113">
+    <filterColumn colId="10">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K87 K89:K115">
@@ -13110,7 +13150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
